--- a/docs/build-times/build-times-compared.xlsx
+++ b/docs/build-times/build-times-compared.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hárok2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>minutes</t>
   </si>
@@ -43,6 +44,12 @@
   </si>
   <si>
     <t>seconds</t>
+  </si>
+  <si>
+    <t>no-analyzers</t>
+  </si>
+  <si>
+    <t>bh-analyzers</t>
   </si>
 </sst>
 </file>
@@ -372,8 +379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2041,4 +2048,849 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5.2077199183333338</v>
+      </c>
+      <c r="B2">
+        <v>5.3805436433333327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5.0867765716666664</v>
+      </c>
+      <c r="B3">
+        <v>5.2604513500000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5.124200506666666</v>
+      </c>
+      <c r="B4">
+        <v>5.2444562966666668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5.0411099300000002</v>
+      </c>
+      <c r="B5">
+        <v>5.206638645</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5.0984446649999997</v>
+      </c>
+      <c r="B6">
+        <v>5.2595761383333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5.0911279066666673</v>
+      </c>
+      <c r="B7">
+        <v>5.3672456433333329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5.03698259</v>
+      </c>
+      <c r="B8">
+        <v>5.2267668299999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5.1205577266666671</v>
+      </c>
+      <c r="B9">
+        <v>5.267906393333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5.0111799749999992</v>
+      </c>
+      <c r="B10">
+        <v>5.24258778</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5.144822445</v>
+      </c>
+      <c r="B11">
+        <v>5.2803687816666658</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5.0362942083333335</v>
+      </c>
+      <c r="B12">
+        <v>5.2803269166666666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5.0457826033333335</v>
+      </c>
+      <c r="B13">
+        <v>5.2261645000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5.0937298283333341</v>
+      </c>
+      <c r="B14">
+        <v>5.2651057016666671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5.0533582233333334</v>
+      </c>
+      <c r="B15">
+        <v>5.2709320450000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5.0754201183333336</v>
+      </c>
+      <c r="B16">
+        <v>5.2227375450000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5.0227803583333337</v>
+      </c>
+      <c r="B17">
+        <v>5.2372609016666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5.1038436416666659</v>
+      </c>
+      <c r="B18">
+        <v>5.2434614083333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5.1383525600000004</v>
+      </c>
+      <c r="B19">
+        <v>5.1849784866666662</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>5.1521923049999998</v>
+      </c>
+      <c r="B20">
+        <v>5.2061898166666669</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>5.0903149933333331</v>
+      </c>
+      <c r="B21">
+        <v>5.2519269550000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5.1339030983333327</v>
+      </c>
+      <c r="B22">
+        <v>5.2707379633333327</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>5.0846932200000001</v>
+      </c>
+      <c r="B23">
+        <v>5.2505220783333337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>5.1300538500000004</v>
+      </c>
+      <c r="B24">
+        <v>5.1730502533333338</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>5.1126851116666669</v>
+      </c>
+      <c r="B25">
+        <v>5.1882614550000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>5.1000856599999995</v>
+      </c>
+      <c r="B26">
+        <v>5.1716625816666664</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>5.0916144683333338</v>
+      </c>
+      <c r="B27">
+        <v>5.1836574200000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>5.0593575116666667</v>
+      </c>
+      <c r="B28">
+        <v>5.2357000249999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>5.0800218216666666</v>
+      </c>
+      <c r="B29">
+        <v>5.1881177666666662</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>6.4831331399999996</v>
+      </c>
+      <c r="B30">
+        <v>5.225218176666667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>5.1219881783333339</v>
+      </c>
+      <c r="B31">
+        <v>5.1867903783333329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>5.047798573333333</v>
+      </c>
+      <c r="B32">
+        <v>5.1956955983333337</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>5.0676044849999995</v>
+      </c>
+      <c r="B33">
+        <v>5.2541469233333338</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>5.0778693733333329</v>
+      </c>
+      <c r="B34">
+        <v>5.1797570333333338</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>5.0700108966666662</v>
+      </c>
+      <c r="B35">
+        <v>5.2868905500000007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>5.0942955716666667</v>
+      </c>
+      <c r="B36">
+        <v>5.2219127066666671</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>5.1340936033333335</v>
+      </c>
+      <c r="B37">
+        <v>5.2204412699999994</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>5.0784151616666673</v>
+      </c>
+      <c r="B38">
+        <v>5.2627663583333328</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>5.1243361416666673</v>
+      </c>
+      <c r="B39">
+        <v>5.1819683183333334</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>5.0218895650000004</v>
+      </c>
+      <c r="B40">
+        <v>5.2254005883333328</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>5.0797974083333335</v>
+      </c>
+      <c r="B41">
+        <v>5.2265904983333336</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>5.1266723033333337</v>
+      </c>
+      <c r="B42">
+        <v>5.2560468266666662</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>5.0952018899999993</v>
+      </c>
+      <c r="B43">
+        <v>5.1975453633333331</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>5.0937159766666671</v>
+      </c>
+      <c r="B44">
+        <v>5.1796197133333335</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>5.0493276666666667</v>
+      </c>
+      <c r="B45">
+        <v>5.227595851666667</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>5.1136617700000002</v>
+      </c>
+      <c r="B46">
+        <v>5.224930866666667</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>5.0776944833333335</v>
+      </c>
+      <c r="B47">
+        <v>5.2042806666666674</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>5.1114495866666667</v>
+      </c>
+      <c r="B48">
+        <v>5.1855446399999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>5.1029539633333334</v>
+      </c>
+      <c r="B49">
+        <v>5.1944351733333338</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>5.1071097100000005</v>
+      </c>
+      <c r="B50">
+        <v>5.2824494499999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>5.1154488783333338</v>
+      </c>
+      <c r="B51">
+        <v>5.2305388033333333</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>5.1339069733333336</v>
+      </c>
+      <c r="B52">
+        <v>5.2484029700000008</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>5.0680982999999999</v>
+      </c>
+      <c r="B53">
+        <v>5.2499754983333338</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>5.1170470499999992</v>
+      </c>
+      <c r="B54">
+        <v>5.2206572283333337</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>5.0816471583333334</v>
+      </c>
+      <c r="B55">
+        <v>5.2516650699999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>5.0454565666666662</v>
+      </c>
+      <c r="B56">
+        <v>5.2035187249999995</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>5.0343351316666665</v>
+      </c>
+      <c r="B57">
+        <v>5.1800755299999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>5.079235726666667</v>
+      </c>
+      <c r="B58">
+        <v>5.2635697166666668</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>5.1073750250000005</v>
+      </c>
+      <c r="B59">
+        <v>5.2527042133333337</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>5.0580783133333336</v>
+      </c>
+      <c r="B60">
+        <v>5.2280753416666661</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>5.0529728</v>
+      </c>
+      <c r="B61">
+        <v>5.261459181666666</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>5.0188409366666669</v>
+      </c>
+      <c r="B62">
+        <v>5.2046220933333327</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>5.1006888799999999</v>
+      </c>
+      <c r="B63">
+        <v>5.2023383699999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>5.0318521500000006</v>
+      </c>
+      <c r="B64">
+        <v>5.2597090466666669</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>5.1227026483333331</v>
+      </c>
+      <c r="B65">
+        <v>5.2199192883333341</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>5.0512788149999999</v>
+      </c>
+      <c r="B66">
+        <v>5.2683315016666672</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>5.1546176216666666</v>
+      </c>
+      <c r="B67">
+        <v>5.2810217899999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>5.0919838716666668</v>
+      </c>
+      <c r="B68">
+        <v>5.2094744266666666</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>5.1133705016666662</v>
+      </c>
+      <c r="B69">
+        <v>5.2086711183333332</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>5.1071462866666666</v>
+      </c>
+      <c r="B70">
+        <v>5.2919696483333336</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>5.0892534316666671</v>
+      </c>
+      <c r="B71">
+        <v>5.2841255949999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>5.1063405933333339</v>
+      </c>
+      <c r="B72">
+        <v>5.2771404500000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>5.1199859266666667</v>
+      </c>
+      <c r="B73">
+        <v>5.2510063249999996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>5.0507365066666674</v>
+      </c>
+      <c r="B74">
+        <v>5.2533049900000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>5.115553218333333</v>
+      </c>
+      <c r="B75">
+        <v>5.2019445683333334</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>5.136543913333333</v>
+      </c>
+      <c r="B76">
+        <v>5.230328861666667</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>5.1064642583333333</v>
+      </c>
+      <c r="B77">
+        <v>5.1693880549999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>5.1213796466666661</v>
+      </c>
+      <c r="B78">
+        <v>5.2453743866666667</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>5.1012666366666659</v>
+      </c>
+      <c r="B79">
+        <v>5.2884491833333334</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>5.075045358333333</v>
+      </c>
+      <c r="B80">
+        <v>5.2157062283333335</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>5.0493316066666667</v>
+      </c>
+      <c r="B81">
+        <v>5.2034156399999993</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>5.0889768499999999</v>
+      </c>
+      <c r="B82">
+        <v>5.2583775433333333</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>5.0795654483333337</v>
+      </c>
+      <c r="B83">
+        <v>5.2792097650000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>5.1182779016666666</v>
+      </c>
+      <c r="B84">
+        <v>5.2632653600000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>5.1066178249999998</v>
+      </c>
+      <c r="B85">
+        <v>5.2715082083333336</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>5.0434238250000005</v>
+      </c>
+      <c r="B86">
+        <v>5.1916642666666668</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>5.1141631566666668</v>
+      </c>
+      <c r="B87">
+        <v>5.2063926233333335</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>5.02961641</v>
+      </c>
+      <c r="B88">
+        <v>5.210658051666667</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>5.1255421549999998</v>
+      </c>
+      <c r="B89">
+        <v>5.2069800866666665</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>5.1252731933333333</v>
+      </c>
+      <c r="B90">
+        <v>5.2550031666666666</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>5.053311935</v>
+      </c>
+      <c r="B91">
+        <v>5.2552174450000004</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>5.1512297366666662</v>
+      </c>
+      <c r="B92">
+        <v>5.2190040283333339</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>5.0790847599999998</v>
+      </c>
+      <c r="B93">
+        <v>5.2500028233333333</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>5.1026256783333332</v>
+      </c>
+      <c r="B94">
+        <v>5.2436222716666672</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>5.1065256683333331</v>
+      </c>
+      <c r="B95">
+        <v>5.2306272266666669</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>5.1178963300000007</v>
+      </c>
+      <c r="B96">
+        <v>5.2483529433333338</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>5.0448302783333334</v>
+      </c>
+      <c r="B97">
+        <v>5.2581898049999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>5.1006072316666664</v>
+      </c>
+      <c r="B98">
+        <v>5.3075590199999994</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>5.0917179683333327</v>
+      </c>
+      <c r="B99">
+        <v>5.2175166150000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>5.0835318916666674</v>
+      </c>
+      <c r="B100">
+        <v>5.2362783766666672</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>5.0680739033333335</v>
+      </c>
+      <c r="B101">
+        <v>5.2204477216666669</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>5.0915999686842124</v>
+      </c>
+      <c r="B102">
+        <v>5.2344651750438596</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>1.0280590005574548</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>8.5719123815788301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/build-times/build-times-compared.xlsx
+++ b/docs/build-times/build-times-compared.xlsx
@@ -912,7 +912,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
       <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
